--- a/biology/Zoologie/Argenna_subnigra/Argenna_subnigra.xlsx
+++ b/biology/Zoologie/Argenna_subnigra/Argenna_subnigra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argenna subnigra est une espèce d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argenna subnigra est une espèce d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Iran et en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Iran et en Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,0 à 2,5 mm et les femelles de 2,5 à 4,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,0 à 2,5 mm et les femelles de 2,5 à 4,5 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Drassus subniger par O. Pickard-Cambridge en 1861. Elle est placée dans le genre Lethia par Pickard-Cambridge en 1875[3], dans le genre Protadia par en [4] puis dans le genre Argenna par Bösenberg en 1902[5].
-Argenna pallida[6] a été placée en synonymie par Lehtinen en 1967[7].
-Ciniflo puta[8] a été placée en synonymie par Merrett en 1998[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Drassus subniger par O. Pickard-Cambridge en 1861. Elle est placée dans le genre Lethia par Pickard-Cambridge en 1875, dans le genre Protadia par en  puis dans le genre Argenna par Bösenberg en 1902.
+Argenna pallida a été placée en synonymie par Lehtinen en 1967.
+Ciniflo puta a été placée en synonymie par Merrett en 1998.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1861 : « Descriptions of ten new species of spiders lately discovered in England. » Annals and Magazine of Natural History, sér. 3, vol. 7, no 42, p. 428-441 (texte intégral).</t>
         </is>
